--- a/public/template import/Seluruh SP2DK.xlsx
+++ b/public/template import/Seluruh SP2DK.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam Yordan\Desktop\Surat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Belajar\sp2dk\public\template import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41B6F49E-38AB-4ACB-B37D-6F3C1EA28DB6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9F3560-AE0B-4A26-961B-85E5211C8959}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{7B5171EB-DA2E-4CE8-A12E-48CCE8E46DF7}"/>
+    <workbookView xWindow="5115" yWindow="3195" windowWidth="15375" windowHeight="8325" xr2:uid="{7B5171EB-DA2E-4CE8-A12E-48CCE8E46DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,12 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>NPWP</t>
-  </si>
-  <si>
-    <t>Nama</t>
   </si>
   <si>
     <t>Nomor_SP2DK</t>
@@ -485,15 +482,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7410F7B4-51F8-40D7-B5E7-E767466B5ABD}">
-  <dimension ref="A1:AA1"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AA1"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,10 +503,10 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -571,9 +568,6 @@
       </c>
       <c r="Z1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
